--- a/samples_wind/plot/plot_information/미세먼지_info_dataframe.xlsx
+++ b/samples_wind/plot/plot_information/미세먼지_info_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>in-range(max)</t>
+          <t>in-range</t>
         </is>
       </c>
     </row>
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V02Q1940813.xlsx</t>
+          <t>OC3CL200135.xlsx</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2717</v>
+        <v>8845</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118</v>
+        <v>592</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2599</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="3">
@@ -498,25 +498,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V02Q1940815.xlsx</t>
+          <t>OC3CL200136.xlsx</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3367</v>
+        <v>8803</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118</v>
+        <v>632</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3249</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="4">
@@ -525,25 +525,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V02Q1940816.xlsx</t>
+          <t>OC3CL200137.xlsx</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3367</v>
+        <v>8782</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>129</v>
+        <v>503</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3238</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="5">
@@ -552,25 +552,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V02Q1940824.xlsx</t>
+          <t>OC3CL200138.xlsx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3055</v>
+        <v>8748</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>556</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2925</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V02Q1940829.xlsx</t>
+          <t>OC3CL200139.xlsx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2691</v>
+        <v>8741</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>620</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2594</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="7">
@@ -606,25 +606,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V02Q1940830.xlsx</t>
+          <t>OC3CL200140.xlsx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3367</v>
+        <v>8688</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3231</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="8">
@@ -633,25 +633,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V02Q1940831.xlsx</t>
+          <t>OC3CL200141.xlsx</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3367</v>
+        <v>8675</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>661</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3157</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="9">
@@ -660,25 +660,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V02Q1940833.xlsx</t>
+          <t>OC3CL200142.xlsx</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3202</v>
+        <v>8635</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>523</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3070</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="10">
@@ -687,25 +687,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>V02Q1940836.xlsx</t>
+          <t>OC3CL200143.xlsx</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3186</v>
+        <v>8420</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>156</v>
+        <v>741</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IQR</t>
+          <t>iqr</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3030</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="11">
@@ -714,25 +714,592 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>OC3CL200145.xlsx</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8615</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>575</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OC3CL200146.xlsx</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8120</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>582</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OC3CL200147.xlsx</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8573</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>634</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OC3CL200148.xlsx</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8583</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>618</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OC3CL200149.xlsx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8550</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>535</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OC3CL200150.xlsx</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>8580</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>604</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>OC3CL200151.xlsx</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8348</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>616</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OC3CL200152.xlsx</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8782</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>551</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OC3CL200153.xlsx</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8870</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>628</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OC3CL200154.xlsx</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8847</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>710</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>V02Q1940812.xlsx</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7158</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>591</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>V02Q1940813.xlsx</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12698</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>740</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>11958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>V02Q1940815.xlsx</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13373</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>871</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>12502</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>V02Q1940816.xlsx</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13340</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>766</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>12574</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>V02Q1940824.xlsx</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13110</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>974</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>12136</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>V02Q1940829.xlsx</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>11780</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2692</v>
+      </c>
+      <c r="E26" t="n">
+        <v>527</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>V02Q1940830.xlsx</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>13080</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>830</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>V02Q1940831.xlsx</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13287</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1102</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>12185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>V02Q1940833.xlsx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13055</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>813</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>12242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>V02Q1940836.xlsx</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>12684</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>899</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>11785</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>V02Q1940838.xlsx</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7049</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>498</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>V02Q1940878.xlsx</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>3063</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>127</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>IQR</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2936</v>
+      <c r="C32" t="n">
+        <v>13030</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>924</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>12106</v>
       </c>
     </row>
   </sheetData>
